--- a/ISPSMTPogo 10p BOM Instruction.xlsx
+++ b/ISPSMTPogo 10p BOM Instruction.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlpenglowShop\Box\Products, Released\Instruction Downloads - BOMs - Documentation\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlpenglowShop\Documents\Kicad\ISP_SMT_Pogo_10p\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF38956-2072-41A1-BE47-DC6B2715E1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6001DBDD-FB68-483E-B894-D2C3519F0A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31755" yWindow="1230" windowWidth="21885" windowHeight="13335" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6P" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -338,15 +338,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -362,9 +356,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -389,7 +380,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1896,7 +1886,7 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.85546875" style="29" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="29" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="29" bestFit="1" customWidth="1"/>
@@ -1907,785 +1897,759 @@
     <col min="13" max="13" width="8" style="29" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.140625" style="29" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28" style="31" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28" style="30" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" style="30" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-    </row>
-    <row r="2" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+    </row>
+    <row r="2" spans="1:21" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="41">
         <v>1</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-    </row>
-    <row r="3" spans="1:21" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+    </row>
+    <row r="3" spans="1:21" s="33" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="41">
         <v>6</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-    </row>
-    <row r="4" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="43" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+    </row>
+    <row r="4" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="41">
         <v>2</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-    </row>
-    <row r="5" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+    </row>
+    <row r="5" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="41">
         <v>4</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-    </row>
-    <row r="6" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="43" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+    </row>
+    <row r="6" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="41">
         <v>2</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-    </row>
-    <row r="7" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-    </row>
-    <row r="8" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-    </row>
-    <row r="9" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-    </row>
-    <row r="10" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-    </row>
-    <row r="11" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-    </row>
-    <row r="12" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="47"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="47"/>
-    </row>
-    <row r="13" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-    </row>
-    <row r="14" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-    </row>
-    <row r="15" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-    </row>
-    <row r="16" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-    </row>
-    <row r="17" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-    </row>
-    <row r="18" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-    </row>
-    <row r="19" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-    </row>
-    <row r="20" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-    </row>
-    <row r="21" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-    </row>
-    <row r="22" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-    </row>
-    <row r="23" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-    </row>
-    <row r="24" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-    </row>
-    <row r="25" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="50"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-    </row>
-    <row r="26" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="50"/>
-      <c r="P26" s="40"/>
-      <c r="Q26" s="40"/>
-    </row>
-    <row r="27" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="50"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-    </row>
-    <row r="28" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="50"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-    </row>
-    <row r="29" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="50"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-    </row>
-    <row r="30" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="50"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-    </row>
-    <row r="31" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-    </row>
-    <row r="32" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+    </row>
+    <row r="7" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+    </row>
+    <row r="8" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+    </row>
+    <row r="9" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+    </row>
+    <row r="10" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+    </row>
+    <row r="11" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+    </row>
+    <row r="12" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+    </row>
+    <row r="13" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+    </row>
+    <row r="14" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+    </row>
+    <row r="15" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+    </row>
+    <row r="16" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+    </row>
+    <row r="17" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+    </row>
+    <row r="18" spans="1:17" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+    </row>
+    <row r="19" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+    </row>
+    <row r="20" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+    </row>
+    <row r="21" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+    </row>
+    <row r="22" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+    </row>
+    <row r="23" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+    </row>
+    <row r="24" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+    </row>
+    <row r="25" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="47"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+    </row>
+    <row r="26" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="47"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+    </row>
+    <row r="27" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="47"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+    </row>
+    <row r="28" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="47"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+    </row>
+    <row r="29" spans="1:17" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="47"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+    </row>
+    <row r="30" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="47"/>
+      <c r="P30" s="38"/>
+      <c r="Q30" s="38"/>
+    </row>
+    <row r="31" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+    </row>
+    <row r="32" spans="1:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="50"/>
+      <c r="C33" s="47"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="50"/>
-    </row>
-    <row r="53" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="42"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-    </row>
-    <row r="54" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="42"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-    </row>
-    <row r="55" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="42"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-    </row>
-    <row r="56" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="42"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-    </row>
-    <row r="57" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="42"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-    </row>
-    <row r="58" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="42"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-    </row>
-    <row r="59" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="42"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-    </row>
-    <row r="60" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="42"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-    </row>
-    <row r="61" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="42"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-    </row>
-    <row r="62" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="42"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-    </row>
-    <row r="63" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="42"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-    </row>
-    <row r="64" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="42"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-    </row>
-    <row r="65" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="42"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-    </row>
-    <row r="66" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="42"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-    </row>
-    <row r="67" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="42"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-    </row>
-    <row r="68" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="42"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-    </row>
-    <row r="69" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="42"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-    </row>
-    <row r="70" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="42"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-    </row>
-    <row r="71" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="42"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-    </row>
-    <row r="72" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="42"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-    </row>
-    <row r="73" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="42"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-    </row>
-    <row r="74" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="42"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-    </row>
-    <row r="75" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="42"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-    </row>
-    <row r="76" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="42"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-    </row>
-    <row r="77" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="42"/>
-      <c r="P77" s="40"/>
-      <c r="Q77" s="40"/>
-    </row>
-    <row r="78" spans="2:17" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="42"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
+      <c r="C34" s="47"/>
+    </row>
+    <row r="53" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P53" s="38"/>
+      <c r="Q53" s="38"/>
+    </row>
+    <row r="54" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P54" s="38"/>
+      <c r="Q54" s="38"/>
+    </row>
+    <row r="55" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P55" s="38"/>
+      <c r="Q55" s="38"/>
+    </row>
+    <row r="56" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P56" s="38"/>
+      <c r="Q56" s="38"/>
+    </row>
+    <row r="57" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P57" s="38"/>
+      <c r="Q57" s="38"/>
+    </row>
+    <row r="58" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P58" s="38"/>
+      <c r="Q58" s="38"/>
+    </row>
+    <row r="59" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P59" s="38"/>
+      <c r="Q59" s="38"/>
+    </row>
+    <row r="60" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+    </row>
+    <row r="61" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P61" s="38"/>
+      <c r="Q61" s="38"/>
+    </row>
+    <row r="62" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P62" s="38"/>
+      <c r="Q62" s="38"/>
+    </row>
+    <row r="63" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P63" s="38"/>
+      <c r="Q63" s="38"/>
+    </row>
+    <row r="64" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P64" s="38"/>
+      <c r="Q64" s="38"/>
+    </row>
+    <row r="65" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+    </row>
+    <row r="66" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P66" s="38"/>
+      <c r="Q66" s="38"/>
+    </row>
+    <row r="67" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P67" s="38"/>
+      <c r="Q67" s="38"/>
+    </row>
+    <row r="68" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P68" s="38"/>
+      <c r="Q68" s="38"/>
+    </row>
+    <row r="69" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P69" s="38"/>
+      <c r="Q69" s="38"/>
+    </row>
+    <row r="70" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+    </row>
+    <row r="71" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P71" s="38"/>
+      <c r="Q71" s="38"/>
+    </row>
+    <row r="72" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+    </row>
+    <row r="73" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P73" s="38"/>
+      <c r="Q73" s="38"/>
+    </row>
+    <row r="74" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P74" s="38"/>
+      <c r="Q74" s="38"/>
+    </row>
+    <row r="75" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P75" s="38"/>
+      <c r="Q75" s="38"/>
+    </row>
+    <row r="76" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P76" s="38"/>
+      <c r="Q76" s="38"/>
+    </row>
+    <row r="77" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P77" s="38"/>
+      <c r="Q77" s="38"/>
+    </row>
+    <row r="78" spans="16:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P78" s="38"/>
+      <c r="Q78" s="38"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
